--- a/data/manif_2023.xlsx
+++ b/data/manif_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0025836\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erwan\Documents\ENPC\2A\Melusine\Projet\Melusine\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD45F7EB-9E66-42F0-9307-2D2976983B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B5E78E-C79D-4E82-A782-95CADAEF4855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-8520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapport vierge" sheetId="1" r:id="rId1"/>
@@ -38,41 +38,50 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={74537986-4C5C-4F11-8A95-C7F74843F60A}</author>
     <author>tc={B5F4D3BE-6F8E-480A-9793-8EA01A6376D4}</author>
     <author>tc={0D2BF76B-C431-4DC9-ADE6-07A51782E2C3}</author>
     <author>tc={78264801-BECD-4295-8AF3-EF801ADDF9D4}</author>
     <author>tc={FC52991A-BBF2-4233-AC15-12BB2D84F73E}</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B5F4D3BE-6F8E-480A-9793-8EA01A6376D4}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{74537986-4C5C-4F11-8A95-C7F74843F60A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Zone où on met les palette</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{B5F4D3BE-6F8E-480A-9793-8EA01A6376D4}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     année / id_manif / nom_manif</t>
       </text>
     </comment>
-    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{0D2BF76B-C431-4DC9-ADE6-07A51782E2C3}">
+    <comment ref="C3" authorId="2" shapeId="0" xr:uid="{0D2BF76B-C431-4DC9-ADE6-07A51782E2C3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     nombre de palettes sorties du chantier</t>
       </text>
     </comment>
-    <comment ref="D3" authorId="2" shapeId="0" xr:uid="{78264801-BECD-4295-8AF3-EF801ADDF9D4}">
+    <comment ref="D3" authorId="3" shapeId="0" xr:uid="{78264801-BECD-4295-8AF3-EF801ADDF9D4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     produit = référence</t>
       </text>
     </comment>
-    <comment ref="E3" authorId="3" shapeId="0" xr:uid="{FC52991A-BBF2-4233-AC15-12BB2D84F73E}">
+    <comment ref="E3" authorId="4" shapeId="0" xr:uid="{FC52991A-BBF2-4233-AC15-12BB2D84F73E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     nombre de magasins destinataires</t>
       </text>
     </comment>
@@ -1314,11 +1323,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1341,9 +1362,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,13 +1386,14 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Tidiane Polo" id="{0E514FB5-A794-4976-9E7B-00E62D52E8E9}" userId="351fb774aae82982" providerId="Windows Live"/>
+  <person displayName="m044204" id="{E9213AE0-9C59-42AC-849A-3F9F2C7EC361}" userId="S::m044204@365of.top::2af70beb-87a1-48c7-9be6-fd70fc73eac2" providerId="AD"/>
 </personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1408,7 +1431,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1514,7 +1537,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1656,7 +1679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1664,6 +1687,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A3" dT="2023-12-21T14:28:42.02" personId="{E9213AE0-9C59-42AC-849A-3F9F2C7EC361}" id="{74537986-4C5C-4F11-8A95-C7F74843F60A}">
+    <text>Zone où on met les palette</text>
+  </threadedComment>
   <threadedComment ref="B3" dT="2023-12-18T13:54:18.11" personId="{0E514FB5-A794-4976-9E7B-00E62D52E8E9}" id="{B5F4D3BE-6F8E-480A-9793-8EA01A6376D4}">
     <text>année / id_manif / nom_manif</text>
   </threadedComment>
@@ -1687,24 +1713,24 @@
   <dimension ref="A1:H872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1721,7 +1747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1784,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1792,7 +1818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1835,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1843,7 +1869,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1860,7 +1886,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1877,7 +1903,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +1920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1911,7 +1937,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +1954,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1971,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1962,7 +1988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1979,7 +2005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1996,7 +2022,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +2039,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2030,7 +2056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2047,7 +2073,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2064,7 +2090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2081,7 +2107,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2098,7 +2124,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2141,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2132,7 +2158,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2149,7 +2175,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2166,7 +2192,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2183,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2200,7 +2226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2217,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2234,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2251,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2268,8 +2294,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
@@ -2285,7 +2311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2302,7 +2328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2319,7 +2345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2336,7 +2362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2353,7 +2379,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2370,7 +2396,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2387,7 +2413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2404,7 +2430,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2421,7 +2447,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2438,7 +2464,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2455,7 +2481,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2472,7 +2498,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2489,7 +2515,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2506,7 +2532,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2523,7 +2549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2540,7 +2566,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2557,7 +2583,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2574,7 +2600,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2591,7 +2617,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2608,7 +2634,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2625,7 +2651,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2642,7 +2668,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2659,7 +2685,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2676,7 +2702,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2693,7 +2719,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2710,7 +2736,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -2727,7 +2753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -2744,7 +2770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -2761,7 +2787,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -2778,7 +2804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>57</v>
       </c>
@@ -2795,7 +2821,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -2812,7 +2838,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -2829,7 +2855,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2846,7 +2872,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -2863,7 +2889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -2880,7 +2906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>64</v>
       </c>
@@ -2897,7 +2923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -2914,7 +2940,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -2931,7 +2957,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -2948,7 +2974,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -2965,7 +2991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -2982,7 +3008,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -2999,7 +3025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -3016,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -3033,7 +3059,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -3050,7 +3076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>74</v>
       </c>
@@ -3067,7 +3093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -3084,7 +3110,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>74</v>
       </c>
@@ -3101,7 +3127,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -3118,7 +3144,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -3135,7 +3161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -3152,7 +3178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -3169,7 +3195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -3186,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>80</v>
       </c>
@@ -3203,7 +3229,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -3220,7 +3246,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>80</v>
       </c>
@@ -3237,7 +3263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>80</v>
       </c>
@@ -3254,7 +3280,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>80</v>
       </c>
@@ -3271,7 +3297,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>80</v>
       </c>
@@ -3288,7 +3314,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>80</v>
       </c>
@@ -3305,7 +3331,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>80</v>
       </c>
@@ -3322,7 +3348,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -3339,7 +3365,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>80</v>
       </c>
@@ -3356,7 +3382,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -3373,7 +3399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>93</v>
       </c>
@@ -3390,7 +3416,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -3407,7 +3433,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -3424,7 +3450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>93</v>
       </c>
@@ -3441,7 +3467,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>96</v>
       </c>
@@ -3458,7 +3484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -3475,7 +3501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>96</v>
       </c>
@@ -3492,7 +3518,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>96</v>
       </c>
@@ -3509,7 +3535,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -3526,7 +3552,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>98</v>
       </c>
@@ -3543,7 +3569,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>98</v>
       </c>
@@ -3560,7 +3586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -3577,7 +3603,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -3594,7 +3620,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -3611,7 +3637,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -3628,7 +3654,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -3645,7 +3671,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>98</v>
       </c>
@@ -3662,7 +3688,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -3679,7 +3705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -3696,7 +3722,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -3713,7 +3739,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -3730,7 +3756,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -3747,7 +3773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -3764,7 +3790,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -3781,7 +3807,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -3798,7 +3824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>100</v>
       </c>
@@ -3815,7 +3841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>100</v>
       </c>
@@ -3832,7 +3858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>100</v>
       </c>
@@ -3849,7 +3875,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>100</v>
       </c>
@@ -3866,7 +3892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>100</v>
       </c>
@@ -3883,7 +3909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>100</v>
       </c>
@@ -3900,7 +3926,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>100</v>
       </c>
@@ -3917,7 +3943,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>100</v>
       </c>
@@ -3934,7 +3960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>100</v>
       </c>
@@ -3951,7 +3977,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>100</v>
       </c>
@@ -3968,7 +3994,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>100</v>
       </c>
@@ -3985,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>100</v>
       </c>
@@ -4002,7 +4028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>100</v>
       </c>
@@ -4019,7 +4045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>108</v>
       </c>
@@ -4036,7 +4062,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>108</v>
       </c>
@@ -4053,7 +4079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>108</v>
       </c>
@@ -4070,7 +4096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>108</v>
       </c>
@@ -4087,7 +4113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>108</v>
       </c>
@@ -4104,7 +4130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>108</v>
       </c>
@@ -4121,7 +4147,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>108</v>
       </c>
@@ -4138,7 +4164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>108</v>
       </c>
@@ -4155,7 +4181,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>108</v>
       </c>
@@ -4172,7 +4198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>111</v>
       </c>
@@ -4189,7 +4215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>111</v>
       </c>
@@ -4206,7 +4232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>111</v>
       </c>
@@ -4223,7 +4249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>111</v>
       </c>
@@ -4240,7 +4266,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>111</v>
       </c>
@@ -4257,7 +4283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>111</v>
       </c>
@@ -4274,7 +4300,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>111</v>
       </c>
@@ -4291,7 +4317,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>111</v>
       </c>
@@ -4308,7 +4334,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>111</v>
       </c>
@@ -4325,7 +4351,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>114</v>
       </c>
@@ -4342,7 +4368,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>114</v>
       </c>
@@ -4359,7 +4385,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -4376,7 +4402,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>114</v>
       </c>
@@ -4393,7 +4419,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>114</v>
       </c>
@@ -4410,7 +4436,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>114</v>
       </c>
@@ -4427,7 +4453,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>114</v>
       </c>
@@ -4444,7 +4470,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>114</v>
       </c>
@@ -4461,7 +4487,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>114</v>
       </c>
@@ -4478,7 +4504,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -4495,7 +4521,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>121</v>
       </c>
@@ -4512,7 +4538,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>121</v>
       </c>
@@ -4529,7 +4555,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>121</v>
       </c>
@@ -4546,7 +4572,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>121</v>
       </c>
@@ -4563,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>121</v>
       </c>
@@ -4580,7 +4606,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>121</v>
       </c>
@@ -4597,7 +4623,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>121</v>
       </c>
@@ -4614,7 +4640,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>121</v>
       </c>
@@ -4631,7 +4657,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>121</v>
       </c>
@@ -4648,7 +4674,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>121</v>
       </c>
@@ -4665,7 +4691,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>121</v>
       </c>
@@ -4682,7 +4708,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>121</v>
       </c>
@@ -4699,7 +4725,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>125</v>
       </c>
@@ -4716,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>125</v>
       </c>
@@ -4733,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>125</v>
       </c>
@@ -4750,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>125</v>
       </c>
@@ -4767,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>125</v>
       </c>
@@ -4784,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>125</v>
       </c>
@@ -4801,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>125</v>
       </c>
@@ -4818,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>126</v>
       </c>
@@ -4835,7 +4861,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>126</v>
       </c>
@@ -4852,7 +4878,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -4869,7 +4895,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -4886,7 +4912,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>126</v>
       </c>
@@ -4903,7 +4929,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>126</v>
       </c>
@@ -4920,7 +4946,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>126</v>
       </c>
@@ -4937,7 +4963,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>126</v>
       </c>
@@ -4954,7 +4980,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>126</v>
       </c>
@@ -4971,7 +4997,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>126</v>
       </c>
@@ -4988,7 +5014,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>126</v>
       </c>
@@ -5005,7 +5031,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>126</v>
       </c>
@@ -5022,7 +5048,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>126</v>
       </c>
@@ -5039,7 +5065,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>126</v>
       </c>
@@ -5056,7 +5082,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>126</v>
       </c>
@@ -5073,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>126</v>
       </c>
@@ -5090,7 +5116,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>131</v>
       </c>
@@ -5107,7 +5133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>131</v>
       </c>
@@ -5124,7 +5150,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>131</v>
       </c>
@@ -5141,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>131</v>
       </c>
@@ -5158,7 +5184,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>131</v>
       </c>
@@ -5175,7 +5201,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>132</v>
       </c>
@@ -5192,7 +5218,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>132</v>
       </c>
@@ -5209,7 +5235,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>132</v>
       </c>
@@ -5226,7 +5252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>132</v>
       </c>
@@ -5243,7 +5269,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>132</v>
       </c>
@@ -5260,7 +5286,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>132</v>
       </c>
@@ -5277,7 +5303,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>132</v>
       </c>
@@ -5294,7 +5320,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>132</v>
       </c>
@@ -5311,7 +5337,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>132</v>
       </c>
@@ -5328,7 +5354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>132</v>
       </c>
@@ -5345,7 +5371,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>132</v>
       </c>
@@ -5362,7 +5388,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>132</v>
       </c>
@@ -5379,7 +5405,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>132</v>
       </c>
@@ -5396,7 +5422,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>132</v>
       </c>
@@ -5413,7 +5439,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>132</v>
       </c>
@@ -5430,7 +5456,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>132</v>
       </c>
@@ -5447,7 +5473,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>145</v>
       </c>
@@ -5464,7 +5490,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>145</v>
       </c>
@@ -5481,7 +5507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>145</v>
       </c>
@@ -5498,7 +5524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>145</v>
       </c>
@@ -5515,7 +5541,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>145</v>
       </c>
@@ -5532,7 +5558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>145</v>
       </c>
@@ -5549,7 +5575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>145</v>
       </c>
@@ -5566,7 +5592,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>145</v>
       </c>
@@ -5583,7 +5609,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>146</v>
       </c>
@@ -5600,7 +5626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>146</v>
       </c>
@@ -5617,7 +5643,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>146</v>
       </c>
@@ -5634,7 +5660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>146</v>
       </c>
@@ -5651,7 +5677,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>146</v>
       </c>
@@ -5668,7 +5694,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>146</v>
       </c>
@@ -5685,7 +5711,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>146</v>
       </c>
@@ -5702,7 +5728,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>147</v>
       </c>
@@ -5719,7 +5745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>147</v>
       </c>
@@ -5736,7 +5762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>147</v>
       </c>
@@ -5753,7 +5779,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>147</v>
       </c>
@@ -5770,7 +5796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>147</v>
       </c>
@@ -5787,7 +5813,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>147</v>
       </c>
@@ -5804,7 +5830,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>147</v>
       </c>
@@ -5821,7 +5847,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>147</v>
       </c>
@@ -5838,7 +5864,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>149</v>
       </c>
@@ -5855,7 +5881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>149</v>
       </c>
@@ -5872,7 +5898,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>149</v>
       </c>
@@ -5889,7 +5915,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>150</v>
       </c>
@@ -5906,7 +5932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>150</v>
       </c>
@@ -5923,7 +5949,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>150</v>
       </c>
@@ -5940,7 +5966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>150</v>
       </c>
@@ -5957,7 +5983,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>150</v>
       </c>
@@ -5974,7 +6000,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>150</v>
       </c>
@@ -5991,7 +6017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>150</v>
       </c>
@@ -6008,7 +6034,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>150</v>
       </c>
@@ -6025,7 +6051,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>150</v>
       </c>
@@ -6042,7 +6068,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>150</v>
       </c>
@@ -6059,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>150</v>
       </c>
@@ -6076,7 +6102,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>151</v>
       </c>
@@ -6093,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>151</v>
       </c>
@@ -6110,7 +6136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>151</v>
       </c>
@@ -6127,7 +6153,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>151</v>
       </c>
@@ -6144,7 +6170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>151</v>
       </c>
@@ -6161,7 +6187,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>151</v>
       </c>
@@ -6178,7 +6204,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>151</v>
       </c>
@@ -6195,7 +6221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>151</v>
       </c>
@@ -6212,7 +6238,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>151</v>
       </c>
@@ -6229,7 +6255,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>151</v>
       </c>
@@ -6246,7 +6272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>153</v>
       </c>
@@ -6263,7 +6289,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>153</v>
       </c>
@@ -6280,7 +6306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>153</v>
       </c>
@@ -6297,7 +6323,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>153</v>
       </c>
@@ -6314,7 +6340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>153</v>
       </c>
@@ -6331,7 +6357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>153</v>
       </c>
@@ -6348,7 +6374,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>153</v>
       </c>
@@ -6365,7 +6391,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>153</v>
       </c>
@@ -6382,7 +6408,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>153</v>
       </c>
@@ -6399,7 +6425,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>153</v>
       </c>
@@ -6416,7 +6442,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>153</v>
       </c>
@@ -6433,7 +6459,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>153</v>
       </c>
@@ -6450,7 +6476,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>153</v>
       </c>
@@ -6467,7 +6493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>153</v>
       </c>
@@ -6484,7 +6510,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>155</v>
       </c>
@@ -6501,7 +6527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>155</v>
       </c>
@@ -6518,7 +6544,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>155</v>
       </c>
@@ -6535,7 +6561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>155</v>
       </c>
@@ -6552,7 +6578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>155</v>
       </c>
@@ -6569,7 +6595,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>155</v>
       </c>
@@ -6586,7 +6612,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>155</v>
       </c>
@@ -6603,7 +6629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>155</v>
       </c>
@@ -6620,7 +6646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>155</v>
       </c>
@@ -6637,7 +6663,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>156</v>
       </c>
@@ -6654,7 +6680,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>156</v>
       </c>
@@ -6671,7 +6697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>156</v>
       </c>
@@ -6688,7 +6714,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>156</v>
       </c>
@@ -6705,7 +6731,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>156</v>
       </c>
@@ -6722,7 +6748,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>156</v>
       </c>
@@ -6739,7 +6765,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>156</v>
       </c>
@@ -6756,7 +6782,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>156</v>
       </c>
@@ -6773,7 +6799,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>156</v>
       </c>
@@ -6790,7 +6816,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>156</v>
       </c>
@@ -6807,7 +6833,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>156</v>
       </c>
@@ -6824,7 +6850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>156</v>
       </c>
@@ -6841,7 +6867,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>156</v>
       </c>
@@ -6858,7 +6884,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>156</v>
       </c>
@@ -6875,7 +6901,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>156</v>
       </c>
@@ -6892,7 +6918,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>156</v>
       </c>
@@ -6909,7 +6935,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>156</v>
       </c>
@@ -6926,7 +6952,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>156</v>
       </c>
@@ -6943,7 +6969,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>156</v>
       </c>
@@ -6960,7 +6986,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>156</v>
       </c>
@@ -6977,7 +7003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>156</v>
       </c>
@@ -6994,7 +7020,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>156</v>
       </c>
@@ -7011,7 +7037,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>156</v>
       </c>
@@ -7028,7 +7054,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>156</v>
       </c>
@@ -7045,7 +7071,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>162</v>
       </c>
@@ -7062,7 +7088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>162</v>
       </c>
@@ -7079,7 +7105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>162</v>
       </c>
@@ -7096,7 +7122,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>162</v>
       </c>
@@ -7113,7 +7139,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>162</v>
       </c>
@@ -7130,7 +7156,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>162</v>
       </c>
@@ -7147,7 +7173,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>164</v>
       </c>
@@ -7164,7 +7190,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>164</v>
       </c>
@@ -7181,7 +7207,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>164</v>
       </c>
@@ -7198,7 +7224,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>164</v>
       </c>
@@ -7215,7 +7241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>164</v>
       </c>
@@ -7232,7 +7258,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>164</v>
       </c>
@@ -7249,7 +7275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>164</v>
       </c>
@@ -7266,7 +7292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>164</v>
       </c>
@@ -7283,7 +7309,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>164</v>
       </c>
@@ -7300,7 +7326,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>164</v>
       </c>
@@ -7317,7 +7343,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>164</v>
       </c>
@@ -7334,7 +7360,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>164</v>
       </c>
@@ -7351,7 +7377,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>164</v>
       </c>
@@ -7368,7 +7394,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>164</v>
       </c>
@@ -7385,7 +7411,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>164</v>
       </c>
@@ -7402,7 +7428,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>164</v>
       </c>
@@ -7419,7 +7445,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>164</v>
       </c>
@@ -7436,7 +7462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>164</v>
       </c>
@@ -7453,7 +7479,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>164</v>
       </c>
@@ -7470,7 +7496,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>170</v>
       </c>
@@ -7487,7 +7513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>170</v>
       </c>
@@ -7504,7 +7530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>170</v>
       </c>
@@ -7521,7 +7547,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>170</v>
       </c>
@@ -7538,7 +7564,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>170</v>
       </c>
@@ -7555,7 +7581,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>170</v>
       </c>
@@ -7572,7 +7598,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>170</v>
       </c>
@@ -7589,7 +7615,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>170</v>
       </c>
@@ -7606,7 +7632,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>170</v>
       </c>
@@ -7623,7 +7649,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>170</v>
       </c>
@@ -7640,7 +7666,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>170</v>
       </c>
@@ -7657,7 +7683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>170</v>
       </c>
@@ -7674,7 +7700,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>174</v>
       </c>
@@ -7691,7 +7717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>174</v>
       </c>
@@ -7708,7 +7734,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>174</v>
       </c>
@@ -7725,7 +7751,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>174</v>
       </c>
@@ -7742,7 +7768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>174</v>
       </c>
@@ -7759,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>174</v>
       </c>
@@ -7776,7 +7802,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>178</v>
       </c>
@@ -7793,7 +7819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>178</v>
       </c>
@@ -7810,7 +7836,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>178</v>
       </c>
@@ -7827,7 +7853,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>178</v>
       </c>
@@ -7844,7 +7870,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>178</v>
       </c>
@@ -7861,7 +7887,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>178</v>
       </c>
@@ -7878,7 +7904,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>178</v>
       </c>
@@ -7895,7 +7921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>178</v>
       </c>
@@ -7912,7 +7938,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>178</v>
       </c>
@@ -7929,7 +7955,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>178</v>
       </c>
@@ -7946,7 +7972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>178</v>
       </c>
@@ -7963,7 +7989,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>180</v>
       </c>
@@ -7980,7 +8006,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>180</v>
       </c>
@@ -7997,7 +8023,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>180</v>
       </c>
@@ -8014,7 +8040,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>180</v>
       </c>
@@ -8031,7 +8057,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>180</v>
       </c>
@@ -8048,7 +8074,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>180</v>
       </c>
@@ -8065,7 +8091,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>180</v>
       </c>
@@ -8082,7 +8108,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>180</v>
       </c>
@@ -8099,7 +8125,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>183</v>
       </c>
@@ -8116,7 +8142,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>185</v>
       </c>
@@ -8133,7 +8159,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>185</v>
       </c>
@@ -8150,7 +8176,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>185</v>
       </c>
@@ -8167,7 +8193,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>185</v>
       </c>
@@ -8184,7 +8210,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>185</v>
       </c>
@@ -8201,7 +8227,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>185</v>
       </c>
@@ -8218,7 +8244,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>185</v>
       </c>
@@ -8235,7 +8261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>185</v>
       </c>
@@ -8252,7 +8278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>185</v>
       </c>
@@ -8269,7 +8295,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>185</v>
       </c>
@@ -8286,7 +8312,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>188</v>
       </c>
@@ -8303,7 +8329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>189</v>
       </c>
@@ -8320,7 +8346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>189</v>
       </c>
@@ -8337,7 +8363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>190</v>
       </c>
@@ -8354,7 +8380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>190</v>
       </c>
@@ -8371,7 +8397,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>193</v>
       </c>
@@ -8388,7 +8414,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>193</v>
       </c>
@@ -8405,7 +8431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>193</v>
       </c>
@@ -8422,7 +8448,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>193</v>
       </c>
@@ -8439,7 +8465,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>193</v>
       </c>
@@ -8456,7 +8482,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>193</v>
       </c>
@@ -8473,7 +8499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>199</v>
       </c>
@@ -8490,7 +8516,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>199</v>
       </c>
@@ -8507,7 +8533,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>202</v>
       </c>
@@ -8524,7 +8550,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>202</v>
       </c>
@@ -8541,7 +8567,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>202</v>
       </c>
@@ -8558,7 +8584,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>202</v>
       </c>
@@ -8575,7 +8601,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>202</v>
       </c>
@@ -8592,7 +8618,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>202</v>
       </c>
@@ -8609,7 +8635,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>202</v>
       </c>
@@ -8626,7 +8652,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>207</v>
       </c>
@@ -8643,7 +8669,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>207</v>
       </c>
@@ -8660,7 +8686,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>207</v>
       </c>
@@ -8677,7 +8703,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>207</v>
       </c>
@@ -8694,7 +8720,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>207</v>
       </c>
@@ -8711,7 +8737,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>210</v>
       </c>
@@ -8728,7 +8754,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>210</v>
       </c>
@@ -8745,7 +8771,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>210</v>
       </c>
@@ -8762,7 +8788,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>210</v>
       </c>
@@ -8779,7 +8805,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>213</v>
       </c>
@@ -8796,7 +8822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>213</v>
       </c>
@@ -8813,7 +8839,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>213</v>
       </c>
@@ -8830,7 +8856,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>215</v>
       </c>
@@ -8847,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>215</v>
       </c>
@@ -8864,7 +8890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>215</v>
       </c>
@@ -8881,7 +8907,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>215</v>
       </c>
@@ -8898,7 +8924,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>215</v>
       </c>
@@ -8915,7 +8941,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>219</v>
       </c>
@@ -8932,7 +8958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>219</v>
       </c>
@@ -8949,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>219</v>
       </c>
@@ -8966,7 +8992,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>220</v>
       </c>
@@ -8983,7 +9009,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>220</v>
       </c>
@@ -9000,7 +9026,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>220</v>
       </c>
@@ -9017,7 +9043,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>220</v>
       </c>
@@ -9034,7 +9060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>220</v>
       </c>
@@ -9051,7 +9077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>220</v>
       </c>
@@ -9068,7 +9094,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>221</v>
       </c>
@@ -9085,7 +9111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>221</v>
       </c>
@@ -9102,7 +9128,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>221</v>
       </c>
@@ -9119,7 +9145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>224</v>
       </c>
@@ -9136,7 +9162,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>224</v>
       </c>
@@ -9153,7 +9179,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>224</v>
       </c>
@@ -9170,7 +9196,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>224</v>
       </c>
@@ -9187,7 +9213,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>227</v>
       </c>
@@ -9204,7 +9230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>227</v>
       </c>
@@ -9221,7 +9247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>227</v>
       </c>
@@ -9238,7 +9264,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>227</v>
       </c>
@@ -9255,7 +9281,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>228</v>
       </c>
@@ -9272,7 +9298,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>228</v>
       </c>
@@ -9289,7 +9315,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>229</v>
       </c>
@@ -9306,7 +9332,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>229</v>
       </c>
@@ -9323,7 +9349,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>229</v>
       </c>
@@ -9340,7 +9366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>230</v>
       </c>
@@ -9357,7 +9383,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>231</v>
       </c>
@@ -9374,7 +9400,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>231</v>
       </c>
@@ -9391,7 +9417,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>231</v>
       </c>
@@ -9408,7 +9434,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>231</v>
       </c>
@@ -9425,7 +9451,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>231</v>
       </c>
@@ -9442,7 +9468,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>233</v>
       </c>
@@ -9459,7 +9485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>233</v>
       </c>
@@ -9476,7 +9502,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>233</v>
       </c>
@@ -9493,7 +9519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>233</v>
       </c>
@@ -9510,7 +9536,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>237</v>
       </c>
@@ -9527,7 +9553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>237</v>
       </c>
@@ -9544,7 +9570,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>237</v>
       </c>
@@ -9561,7 +9587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>237</v>
       </c>
@@ -9578,7 +9604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>237</v>
       </c>
@@ -9595,7 +9621,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>237</v>
       </c>
@@ -9612,7 +9638,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>241</v>
       </c>
@@ -9629,7 +9655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>241</v>
       </c>
@@ -9646,7 +9672,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>241</v>
       </c>
@@ -9663,7 +9689,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>241</v>
       </c>
@@ -9680,7 +9706,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>241</v>
       </c>
@@ -9697,7 +9723,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>245</v>
       </c>
@@ -9714,7 +9740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>245</v>
       </c>
@@ -9731,7 +9757,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>245</v>
       </c>
@@ -9748,7 +9774,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>245</v>
       </c>
@@ -9765,7 +9791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>245</v>
       </c>
@@ -9782,7 +9808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>245</v>
       </c>
@@ -9799,7 +9825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>246</v>
       </c>
@@ -9816,7 +9842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>246</v>
       </c>
@@ -9833,7 +9859,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>246</v>
       </c>
@@ -9850,7 +9876,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>246</v>
       </c>
@@ -9867,7 +9893,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>246</v>
       </c>
@@ -9884,7 +9910,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>248</v>
       </c>
@@ -9901,7 +9927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>248</v>
       </c>
@@ -9918,7 +9944,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>248</v>
       </c>
@@ -9935,7 +9961,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>248</v>
       </c>
@@ -9952,7 +9978,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>248</v>
       </c>
@@ -9969,7 +9995,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>249</v>
       </c>
@@ -9986,7 +10012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>249</v>
       </c>
@@ -10003,7 +10029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>249</v>
       </c>
@@ -10020,7 +10046,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>249</v>
       </c>
@@ -10037,7 +10063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>250</v>
       </c>
@@ -10054,7 +10080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>250</v>
       </c>
@@ -10071,7 +10097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>252</v>
       </c>
@@ -10088,7 +10114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>252</v>
       </c>
@@ -10105,7 +10131,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>252</v>
       </c>
@@ -10122,7 +10148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>252</v>
       </c>
@@ -10139,7 +10165,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>252</v>
       </c>
@@ -10156,7 +10182,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>253</v>
       </c>
@@ -10173,7 +10199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>253</v>
       </c>
@@ -10190,7 +10216,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>253</v>
       </c>
@@ -10207,7 +10233,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>253</v>
       </c>
@@ -10224,7 +10250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>254</v>
       </c>
@@ -10241,7 +10267,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>254</v>
       </c>
@@ -10258,7 +10284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>254</v>
       </c>
@@ -10275,7 +10301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>254</v>
       </c>
@@ -10292,7 +10318,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>255</v>
       </c>
@@ -10309,7 +10335,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>255</v>
       </c>
@@ -10326,7 +10352,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>256</v>
       </c>
@@ -10343,7 +10369,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>256</v>
       </c>
@@ -10360,7 +10386,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>256</v>
       </c>
@@ -10377,7 +10403,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>256</v>
       </c>
@@ -10394,7 +10420,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>256</v>
       </c>
@@ -10411,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>256</v>
       </c>
@@ -10428,7 +10454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>257</v>
       </c>
@@ -10445,7 +10471,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>257</v>
       </c>
@@ -10462,7 +10488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>257</v>
       </c>
@@ -10479,7 +10505,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>258</v>
       </c>
@@ -10496,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>258</v>
       </c>
@@ -10513,7 +10539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>258</v>
       </c>
@@ -10530,7 +10556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>258</v>
       </c>
@@ -10547,7 +10573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>258</v>
       </c>
@@ -10564,7 +10590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>259</v>
       </c>
@@ -10581,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>259</v>
       </c>
@@ -10598,7 +10624,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>260</v>
       </c>
@@ -10615,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>260</v>
       </c>
@@ -10632,7 +10658,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>260</v>
       </c>
@@ -10649,7 +10675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>260</v>
       </c>
@@ -10666,7 +10692,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>260</v>
       </c>
@@ -10683,7 +10709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>260</v>
       </c>
@@ -10700,7 +10726,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>260</v>
       </c>
@@ -10717,7 +10743,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>260</v>
       </c>
@@ -10734,7 +10760,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>260</v>
       </c>
@@ -10751,7 +10777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>260</v>
       </c>
@@ -10768,7 +10794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>260</v>
       </c>
@@ -10785,7 +10811,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>260</v>
       </c>
@@ -10802,7 +10828,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>260</v>
       </c>
@@ -10819,7 +10845,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>272</v>
       </c>
@@ -10836,7 +10862,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>272</v>
       </c>
@@ -10853,7 +10879,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>272</v>
       </c>
@@ -10870,7 +10896,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>272</v>
       </c>
@@ -10887,7 +10913,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>272</v>
       </c>
@@ -10904,7 +10930,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>272</v>
       </c>
@@ -10921,7 +10947,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>277</v>
       </c>
@@ -10938,7 +10964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>277</v>
       </c>
@@ -10955,7 +10981,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>277</v>
       </c>
@@ -10972,7 +10998,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>277</v>
       </c>
@@ -10989,7 +11015,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>277</v>
       </c>
@@ -11006,7 +11032,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>277</v>
       </c>
@@ -11023,7 +11049,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>280</v>
       </c>
@@ -11040,7 +11066,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>280</v>
       </c>
@@ -11057,7 +11083,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>280</v>
       </c>
@@ -11074,7 +11100,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>280</v>
       </c>
@@ -11091,7 +11117,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>280</v>
       </c>
@@ -11108,7 +11134,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>280</v>
       </c>
@@ -11125,7 +11151,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>284</v>
       </c>
@@ -11142,7 +11168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>286</v>
       </c>
@@ -11159,7 +11185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>286</v>
       </c>
@@ -11176,7 +11202,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>286</v>
       </c>
@@ -11193,7 +11219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>286</v>
       </c>
@@ -11210,7 +11236,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>286</v>
       </c>
@@ -11227,7 +11253,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>286</v>
       </c>
@@ -11244,7 +11270,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>292</v>
       </c>
@@ -11261,7 +11287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>292</v>
       </c>
@@ -11278,7 +11304,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>292</v>
       </c>
@@ -11295,7 +11321,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>292</v>
       </c>
@@ -11312,7 +11338,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>292</v>
       </c>
@@ -11329,7 +11355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>295</v>
       </c>
@@ -11346,7 +11372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>295</v>
       </c>
@@ -11363,7 +11389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>295</v>
       </c>
@@ -11380,7 +11406,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>295</v>
       </c>
@@ -11397,7 +11423,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>295</v>
       </c>
@@ -11414,7 +11440,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>295</v>
       </c>
@@ -11431,7 +11457,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>295</v>
       </c>
@@ -11448,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>295</v>
       </c>
@@ -11465,7 +11491,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>302</v>
       </c>
@@ -11482,7 +11508,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>302</v>
       </c>
@@ -11499,7 +11525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>302</v>
       </c>
@@ -11516,7 +11542,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>302</v>
       </c>
@@ -11533,7 +11559,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>302</v>
       </c>
@@ -11550,7 +11576,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>302</v>
       </c>
@@ -11567,7 +11593,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>302</v>
       </c>
@@ -11584,7 +11610,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>302</v>
       </c>
@@ -11601,7 +11627,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>302</v>
       </c>
@@ -11618,7 +11644,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>302</v>
       </c>
@@ -11635,7 +11661,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>302</v>
       </c>
@@ -11652,7 +11678,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>302</v>
       </c>
@@ -11669,7 +11695,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>311</v>
       </c>
@@ -11686,7 +11712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>311</v>
       </c>
@@ -11703,7 +11729,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>311</v>
       </c>
@@ -11720,7 +11746,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>311</v>
       </c>
@@ -11737,7 +11763,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>311</v>
       </c>
@@ -11754,7 +11780,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>311</v>
       </c>
@@ -11771,7 +11797,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>311</v>
       </c>
@@ -11788,7 +11814,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>311</v>
       </c>
@@ -11805,7 +11831,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>314</v>
       </c>
@@ -11822,7 +11848,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>314</v>
       </c>
@@ -11839,7 +11865,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>314</v>
       </c>
@@ -11856,7 +11882,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>314</v>
       </c>
@@ -11873,7 +11899,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>314</v>
       </c>
@@ -11890,7 +11916,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>314</v>
       </c>
@@ -11907,7 +11933,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>314</v>
       </c>
@@ -11924,7 +11950,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>314</v>
       </c>
@@ -11941,7 +11967,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>314</v>
       </c>
@@ -11958,7 +11984,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>314</v>
       </c>
@@ -11975,7 +12001,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>314</v>
       </c>
@@ -11992,7 +12018,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>314</v>
       </c>
@@ -12009,7 +12035,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>314</v>
       </c>
@@ -12026,7 +12052,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>314</v>
       </c>
@@ -12043,7 +12069,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>314</v>
       </c>
@@ -12060,7 +12086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>323</v>
       </c>
@@ -12077,7 +12103,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>323</v>
       </c>
@@ -12094,7 +12120,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>323</v>
       </c>
@@ -12111,7 +12137,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>323</v>
       </c>
@@ -12128,7 +12154,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>324</v>
       </c>
@@ -12145,7 +12171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>324</v>
       </c>
@@ -12162,7 +12188,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>324</v>
       </c>
@@ -12179,7 +12205,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>324</v>
       </c>
@@ -12196,7 +12222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>324</v>
       </c>
@@ -12213,7 +12239,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>324</v>
       </c>
@@ -12230,7 +12256,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>330</v>
       </c>
@@ -12247,7 +12273,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>330</v>
       </c>
@@ -12264,7 +12290,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>330</v>
       </c>
@@ -12281,7 +12307,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>331</v>
       </c>
@@ -12298,7 +12324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>331</v>
       </c>
@@ -12315,7 +12341,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>331</v>
       </c>
@@ -12332,7 +12358,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>331</v>
       </c>
@@ -12349,7 +12375,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>331</v>
       </c>
@@ -12366,7 +12392,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>331</v>
       </c>
@@ -12383,7 +12409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>331</v>
       </c>
@@ -12400,7 +12426,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>331</v>
       </c>
@@ -12417,7 +12443,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>331</v>
       </c>
@@ -12434,7 +12460,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>335</v>
       </c>
@@ -12451,7 +12477,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>335</v>
       </c>
@@ -12468,7 +12494,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>335</v>
       </c>
@@ -12485,7 +12511,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>335</v>
       </c>
@@ -12502,7 +12528,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>335</v>
       </c>
@@ -12519,7 +12545,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>335</v>
       </c>
@@ -12536,7 +12562,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>335</v>
       </c>
@@ -12553,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>335</v>
       </c>
@@ -12570,7 +12596,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>335</v>
       </c>
@@ -12587,7 +12613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>335</v>
       </c>
@@ -12604,7 +12630,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>335</v>
       </c>
@@ -12621,7 +12647,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>336</v>
       </c>
@@ -12638,7 +12664,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>336</v>
       </c>
@@ -12655,7 +12681,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>336</v>
       </c>
@@ -12672,7 +12698,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>336</v>
       </c>
@@ -12689,7 +12715,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>336</v>
       </c>
@@ -12706,7 +12732,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>336</v>
       </c>
@@ -12723,7 +12749,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>336</v>
       </c>
@@ -12740,7 +12766,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>336</v>
       </c>
@@ -12757,7 +12783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>339</v>
       </c>
@@ -12774,7 +12800,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>339</v>
       </c>
@@ -12791,7 +12817,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>339</v>
       </c>
@@ -12808,7 +12834,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>340</v>
       </c>
@@ -12825,7 +12851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>340</v>
       </c>
@@ -12842,7 +12868,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>340</v>
       </c>
@@ -12859,7 +12885,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>340</v>
       </c>
@@ -12876,7 +12902,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>340</v>
       </c>
@@ -12893,7 +12919,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>343</v>
       </c>
@@ -12910,7 +12936,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>343</v>
       </c>
@@ -12927,7 +12953,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>343</v>
       </c>
@@ -12944,7 +12970,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>343</v>
       </c>
@@ -12961,7 +12987,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>343</v>
       </c>
@@ -12978,7 +13004,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>343</v>
       </c>
@@ -12995,7 +13021,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>343</v>
       </c>
@@ -13012,7 +13038,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>343</v>
       </c>
@@ -13029,7 +13055,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>343</v>
       </c>
@@ -13046,7 +13072,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>343</v>
       </c>
@@ -13063,7 +13089,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>343</v>
       </c>
@@ -13080,7 +13106,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>343</v>
       </c>
@@ -13097,7 +13123,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>349</v>
       </c>
@@ -13114,7 +13140,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>349</v>
       </c>
@@ -13131,7 +13157,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>349</v>
       </c>
@@ -13148,7 +13174,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>349</v>
       </c>
@@ -13165,7 +13191,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>349</v>
       </c>
@@ -13182,7 +13208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>349</v>
       </c>
@@ -13199,7 +13225,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>349</v>
       </c>
@@ -13216,7 +13242,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>349</v>
       </c>
@@ -13233,7 +13259,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>349</v>
       </c>
@@ -13250,7 +13276,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>349</v>
       </c>
@@ -13267,7 +13293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>349</v>
       </c>
@@ -13284,7 +13310,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>352</v>
       </c>
@@ -13301,7 +13327,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>352</v>
       </c>
@@ -13318,7 +13344,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>352</v>
       </c>
@@ -13335,7 +13361,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>352</v>
       </c>
@@ -13352,7 +13378,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>353</v>
       </c>
@@ -13369,7 +13395,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>353</v>
       </c>
@@ -13386,7 +13412,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>353</v>
       </c>
@@ -13403,7 +13429,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>353</v>
       </c>
@@ -13420,7 +13446,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>353</v>
       </c>
@@ -13437,7 +13463,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>353</v>
       </c>
@@ -13454,7 +13480,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>353</v>
       </c>
@@ -13471,7 +13497,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>358</v>
       </c>
@@ -13488,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>358</v>
       </c>
@@ -13505,7 +13531,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>358</v>
       </c>
@@ -13522,7 +13548,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>358</v>
       </c>
@@ -13539,7 +13565,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>358</v>
       </c>
@@ -13556,7 +13582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>358</v>
       </c>
@@ -13573,7 +13599,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>358</v>
       </c>
@@ -13590,7 +13616,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>358</v>
       </c>
@@ -13607,7 +13633,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>358</v>
       </c>
@@ -13624,7 +13650,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>363</v>
       </c>
@@ -13641,7 +13667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>363</v>
       </c>
@@ -13658,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>363</v>
       </c>
@@ -13675,7 +13701,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>363</v>
       </c>
@@ -13692,7 +13718,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>363</v>
       </c>
@@ -13709,7 +13735,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>363</v>
       </c>
@@ -13726,7 +13752,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>363</v>
       </c>
@@ -13743,7 +13769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>368</v>
       </c>
@@ -13760,7 +13786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>368</v>
       </c>
@@ -13777,7 +13803,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>368</v>
       </c>
@@ -13794,7 +13820,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>368</v>
       </c>
@@ -13811,7 +13837,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>368</v>
       </c>
@@ -13828,7 +13854,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>368</v>
       </c>
@@ -13845,7 +13871,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>368</v>
       </c>
@@ -13862,7 +13888,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>368</v>
       </c>
@@ -13879,7 +13905,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>368</v>
       </c>
@@ -13896,7 +13922,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>373</v>
       </c>
@@ -13913,7 +13939,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>373</v>
       </c>
@@ -13930,7 +13956,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>373</v>
       </c>
@@ -13947,7 +13973,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>373</v>
       </c>
@@ -13964,7 +13990,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>373</v>
       </c>
@@ -13981,7 +14007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>373</v>
       </c>
@@ -13998,7 +14024,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>373</v>
       </c>
@@ -14015,7 +14041,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>373</v>
       </c>
@@ -14032,7 +14058,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>374</v>
       </c>
@@ -14049,7 +14075,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>374</v>
       </c>
@@ -14066,7 +14092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>374</v>
       </c>
@@ -14083,7 +14109,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>374</v>
       </c>
@@ -14100,7 +14126,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>374</v>
       </c>
@@ -14117,7 +14143,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>377</v>
       </c>
@@ -14134,7 +14160,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>377</v>
       </c>
@@ -14151,7 +14177,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>377</v>
       </c>
@@ -14168,7 +14194,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>377</v>
       </c>
@@ -14185,7 +14211,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>377</v>
       </c>
@@ -14202,7 +14228,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>377</v>
       </c>
@@ -14219,7 +14245,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>378</v>
       </c>
@@ -14236,7 +14262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>378</v>
       </c>
@@ -14253,7 +14279,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>378</v>
       </c>
@@ -14270,7 +14296,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>378</v>
       </c>
@@ -14287,7 +14313,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>378</v>
       </c>
@@ -14304,7 +14330,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>378</v>
       </c>
@@ -14321,7 +14347,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>378</v>
       </c>
@@ -14338,7 +14364,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>378</v>
       </c>
@@ -14355,7 +14381,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>381</v>
       </c>
@@ -14372,7 +14398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>381</v>
       </c>
@@ -14389,7 +14415,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>381</v>
       </c>
@@ -14406,7 +14432,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>381</v>
       </c>
@@ -14423,7 +14449,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>381</v>
       </c>
@@ -14440,7 +14466,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>381</v>
       </c>
@@ -14457,7 +14483,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>381</v>
       </c>
@@ -14474,7 +14500,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>383</v>
       </c>
@@ -14491,7 +14517,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>383</v>
       </c>
@@ -14508,7 +14534,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>383</v>
       </c>
@@ -14525,7 +14551,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>383</v>
       </c>
@@ -14542,7 +14568,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>383</v>
       </c>
@@ -14559,7 +14585,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>383</v>
       </c>
@@ -14576,7 +14602,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>383</v>
       </c>
@@ -14593,7 +14619,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>383</v>
       </c>
@@ -14610,7 +14636,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>383</v>
       </c>
@@ -14627,7 +14653,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>386</v>
       </c>
@@ -14644,7 +14670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>386</v>
       </c>
@@ -14661,7 +14687,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>386</v>
       </c>
@@ -14678,7 +14704,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>386</v>
       </c>
@@ -14695,7 +14721,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>386</v>
       </c>
@@ -14712,7 +14738,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>386</v>
       </c>
@@ -14729,7 +14755,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>386</v>
       </c>
@@ -14746,7 +14772,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>386</v>
       </c>
@@ -14763,7 +14789,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>388</v>
       </c>
@@ -14780,7 +14806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>388</v>
       </c>
@@ -14797,7 +14823,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>388</v>
       </c>
@@ -14814,7 +14840,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>388</v>
       </c>
@@ -14831,7 +14857,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>388</v>
       </c>
@@ -14848,7 +14874,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>388</v>
       </c>
@@ -14865,7 +14891,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>389</v>
       </c>
@@ -14882,7 +14908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>389</v>
       </c>
@@ -14899,7 +14925,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>389</v>
       </c>
@@ -14916,7 +14942,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>389</v>
       </c>
@@ -14933,7 +14959,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>389</v>
       </c>
@@ -14950,7 +14976,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>389</v>
       </c>
@@ -14967,7 +14993,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>389</v>
       </c>
@@ -14984,7 +15010,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>389</v>
       </c>
@@ -15001,7 +15027,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>389</v>
       </c>
@@ -15018,7 +15044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>390</v>
       </c>
@@ -15035,7 +15061,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>390</v>
       </c>
@@ -15052,7 +15078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>390</v>
       </c>
@@ -15069,7 +15095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>390</v>
       </c>
@@ -15086,7 +15112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>390</v>
       </c>
@@ -15103,7 +15129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>390</v>
       </c>
@@ -15120,7 +15146,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>390</v>
       </c>
@@ -15137,7 +15163,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>390</v>
       </c>
@@ -15154,7 +15180,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>390</v>
       </c>
@@ -15171,7 +15197,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>390</v>
       </c>
@@ -15188,7 +15214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>390</v>
       </c>
@@ -15205,7 +15231,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>390</v>
       </c>
@@ -15222,7 +15248,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>390</v>
       </c>
@@ -15239,7 +15265,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>397</v>
       </c>
@@ -15256,7 +15282,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>397</v>
       </c>
@@ -15273,7 +15299,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>397</v>
       </c>
@@ -15290,7 +15316,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>397</v>
       </c>
@@ -15307,7 +15333,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>397</v>
       </c>
@@ -15324,7 +15350,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>397</v>
       </c>
@@ -15341,7 +15367,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>397</v>
       </c>
@@ -15358,7 +15384,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>397</v>
       </c>
@@ -15375,7 +15401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>397</v>
       </c>
@@ -15392,7 +15418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>397</v>
       </c>
@@ -15409,7 +15435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>398</v>
       </c>
@@ -15426,7 +15452,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>398</v>
       </c>
@@ -15443,7 +15469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>398</v>
       </c>
@@ -15460,7 +15486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>398</v>
       </c>
@@ -15477,7 +15503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>398</v>
       </c>
@@ -15494,7 +15520,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>398</v>
       </c>
@@ -15511,7 +15537,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>398</v>
       </c>
@@ -15528,7 +15554,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>398</v>
       </c>
@@ -15545,7 +15571,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>398</v>
       </c>
@@ -15562,7 +15588,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>399</v>
       </c>
@@ -15579,7 +15605,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>399</v>
       </c>
@@ -15596,7 +15622,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>399</v>
       </c>
@@ -15613,7 +15639,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>399</v>
       </c>
@@ -15630,7 +15656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>399</v>
       </c>
@@ -15647,7 +15673,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>399</v>
       </c>
@@ -15664,7 +15690,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>399</v>
       </c>
@@ -15681,7 +15707,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>399</v>
       </c>
@@ -15698,7 +15724,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>401</v>
       </c>
@@ -15715,7 +15741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>401</v>
       </c>
@@ -15732,7 +15758,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>401</v>
       </c>
@@ -15749,7 +15775,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>401</v>
       </c>
@@ -15766,7 +15792,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>401</v>
       </c>
@@ -15783,7 +15809,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>401</v>
       </c>
@@ -15800,7 +15826,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>401</v>
       </c>
@@ -15817,7 +15843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>401</v>
       </c>
@@ -15834,7 +15860,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>401</v>
       </c>
@@ -15851,7 +15877,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="835" spans="1:5">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>401</v>
       </c>
@@ -15868,7 +15894,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="836" spans="1:5">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>401</v>
       </c>
@@ -15885,7 +15911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>403</v>
       </c>
@@ -15902,7 +15928,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>403</v>
       </c>
@@ -15919,7 +15945,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>403</v>
       </c>
@@ -15936,7 +15962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>403</v>
       </c>
@@ -15953,7 +15979,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>403</v>
       </c>
@@ -15970,7 +15996,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="842" spans="1:5">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>403</v>
       </c>
@@ -15987,7 +16013,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="843" spans="1:5">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>403</v>
       </c>
@@ -16004,7 +16030,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="844" spans="1:5">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>403</v>
       </c>
@@ -16021,7 +16047,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>403</v>
       </c>
@@ -16038,7 +16064,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>403</v>
       </c>
@@ -16055,7 +16081,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="847" spans="1:5">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>403</v>
       </c>
@@ -16072,7 +16098,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="848" spans="1:5">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>403</v>
       </c>
@@ -16089,7 +16115,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="849" spans="1:5">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>403</v>
       </c>
@@ -16106,7 +16132,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="850" spans="1:5">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>404</v>
       </c>
@@ -16123,7 +16149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="851" spans="1:5">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>404</v>
       </c>
@@ -16140,7 +16166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>404</v>
       </c>
@@ -16157,7 +16183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>404</v>
       </c>
@@ -16174,7 +16200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>404</v>
       </c>
@@ -16191,7 +16217,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>404</v>
       </c>
@@ -16208,7 +16234,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>404</v>
       </c>
@@ -16225,7 +16251,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>404</v>
       </c>
@@ -16242,7 +16268,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>404</v>
       </c>
@@ -16259,7 +16285,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>404</v>
       </c>
@@ -16276,7 +16302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="860" spans="1:5">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>404</v>
       </c>
@@ -16293,7 +16319,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="861" spans="1:5">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>405</v>
       </c>
@@ -16310,7 +16336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="862" spans="1:5">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>405</v>
       </c>
@@ -16327,7 +16353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>405</v>
       </c>
@@ -16344,7 +16370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>405</v>
       </c>
@@ -16361,7 +16387,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>405</v>
       </c>
@@ -16378,7 +16404,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>405</v>
       </c>
@@ -16395,7 +16421,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>405</v>
       </c>
@@ -16412,7 +16438,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>405</v>
       </c>
@@ -16429,7 +16455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>405</v>
       </c>
@@ -16446,7 +16472,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>405</v>
       </c>
@@ -16463,7 +16489,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="871" spans="1:5">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>405</v>
       </c>
@@ -16480,7 +16506,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="872" spans="1:5">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B872" t="s">
         <v>14</v>
       </c>
@@ -16501,12 +16527,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16648,19 +16671,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47F7A42B-D391-4BF8-8384-7B72CB447B49}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC50BBFE-641D-435D-8143-AABBA2E2EE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB58899C-E146-4B34-B6CD-3A67246B6C20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB58899C-E146-4B34-B6CD-3A67246B6C20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22e37ad6-ebda-4163-bcf1-18ef8c6f6d6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC50BBFE-641D-435D-8143-AABBA2E2EE17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47F7A42B-D391-4BF8-8384-7B72CB447B49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>